--- a/Grammar.xlsx
+++ b/Grammar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBispo\Work\Repos\Lab-js\fortran-transpiler\FortranAst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBispo\Work\Repos\Lab-js\flang-dumper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC223A-1896-4FBC-A377-C117B4BF394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C8751-A9F1-42F9-B828-10AEC6BD9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5280,7 +5280,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5308,76 +5308,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5660,7 +5590,7 @@
   <dimension ref="A1:C482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10967,19 +10897,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"Not Implemented"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Implemented"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Implemented"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"Incomplete"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Not Implemented"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Grammar.xlsx
+++ b/Grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBispo\Work\Repos\Lab-js\flang-dumper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C8751-A9F1-42F9-B828-10AEC6BD9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E14492-B3B4-4B83-A27D-7674E2C4220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Support" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="1725">
   <si>
     <t>R501 program -&gt; program-unit [program-unit]...</t>
   </si>
@@ -5198,9 +5198,6 @@
   </si>
   <si>
     <t xml:space="preserve">stmt-function-stmt </t>
-  </si>
-  <si>
-    <t>end</t>
   </si>
   <si>
     <t>Not Implemented</t>
@@ -5587,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F0050-DA60-48D3-82F5-78AAC4119BC8}">
-  <dimension ref="A1:C482"/>
+  <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5618,7 +5615,7 @@
         <v>766</v>
       </c>
       <c r="C2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5629,7 +5626,7 @@
         <v>768</v>
       </c>
       <c r="C3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5640,7 +5637,7 @@
         <v>770</v>
       </c>
       <c r="C4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5651,7 +5648,7 @@
         <v>772</v>
       </c>
       <c r="C5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5662,7 +5659,7 @@
         <v>774</v>
       </c>
       <c r="C6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5673,7 +5670,7 @@
         <v>775</v>
       </c>
       <c r="C7" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5684,7 +5681,7 @@
         <v>777</v>
       </c>
       <c r="C8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5695,7 +5692,7 @@
         <v>779</v>
       </c>
       <c r="C9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5706,7 +5703,7 @@
         <v>781</v>
       </c>
       <c r="C10" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5717,7 +5714,7 @@
         <v>783</v>
       </c>
       <c r="C11" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5728,7 +5725,7 @@
         <v>785</v>
       </c>
       <c r="C12" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5739,7 +5736,7 @@
         <v>787</v>
       </c>
       <c r="C13" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5750,7 +5747,7 @@
         <v>789</v>
       </c>
       <c r="C14" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5761,7 +5758,7 @@
         <v>791</v>
       </c>
       <c r="C15" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5772,7 +5769,7 @@
         <v>793</v>
       </c>
       <c r="C16" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5783,7 +5780,7 @@
         <v>795</v>
       </c>
       <c r="C17" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5794,7 +5791,7 @@
         <v>797</v>
       </c>
       <c r="C18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5805,7 +5802,7 @@
         <v>799</v>
       </c>
       <c r="C19" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5816,7 +5813,7 @@
         <v>801</v>
       </c>
       <c r="C20" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5827,7 +5824,7 @@
         <v>803</v>
       </c>
       <c r="C21" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5838,7 +5835,7 @@
         <v>805</v>
       </c>
       <c r="C22" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5849,7 +5846,7 @@
         <v>807</v>
       </c>
       <c r="C23" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5860,7 +5857,7 @@
         <v>809</v>
       </c>
       <c r="C24" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5871,7 +5868,7 @@
         <v>811</v>
       </c>
       <c r="C25" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5882,7 +5879,7 @@
         <v>813</v>
       </c>
       <c r="C26" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5893,7 +5890,7 @@
         <v>815</v>
       </c>
       <c r="C27" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5904,7 +5901,7 @@
         <v>817</v>
       </c>
       <c r="C28" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5915,7 +5912,7 @@
         <v>819</v>
       </c>
       <c r="C29" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5926,7 +5923,7 @@
         <v>821</v>
       </c>
       <c r="C30" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5937,7 +5934,7 @@
         <v>823</v>
       </c>
       <c r="C31" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5948,7 +5945,7 @@
         <v>825</v>
       </c>
       <c r="C32" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5959,7 +5956,7 @@
         <v>827</v>
       </c>
       <c r="C33" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5970,7 +5967,7 @@
         <v>829</v>
       </c>
       <c r="C34" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5981,7 +5978,7 @@
         <v>831</v>
       </c>
       <c r="C35" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5992,7 +5989,7 @@
         <v>833</v>
       </c>
       <c r="C36" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6003,7 +6000,7 @@
         <v>835</v>
       </c>
       <c r="C37" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6014,7 +6011,7 @@
         <v>837</v>
       </c>
       <c r="C38" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6025,7 +6022,7 @@
         <v>839</v>
       </c>
       <c r="C39" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6036,7 +6033,7 @@
         <v>841</v>
       </c>
       <c r="C40" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6047,7 +6044,7 @@
         <v>843</v>
       </c>
       <c r="C41" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6058,7 +6055,7 @@
         <v>845</v>
       </c>
       <c r="C42" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6069,7 +6066,7 @@
         <v>847</v>
       </c>
       <c r="C43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6080,7 +6077,7 @@
         <v>849</v>
       </c>
       <c r="C44" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6091,7 +6088,7 @@
         <v>851</v>
       </c>
       <c r="C45" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6102,7 +6099,7 @@
         <v>853</v>
       </c>
       <c r="C46" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6113,7 +6110,7 @@
         <v>855</v>
       </c>
       <c r="C47" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6124,7 +6121,7 @@
         <v>857</v>
       </c>
       <c r="C48" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6135,7 +6132,7 @@
         <v>859</v>
       </c>
       <c r="C49" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6146,7 +6143,7 @@
         <v>861</v>
       </c>
       <c r="C50" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6157,7 +6154,7 @@
         <v>863</v>
       </c>
       <c r="C51" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6168,7 +6165,7 @@
         <v>865</v>
       </c>
       <c r="C52" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6179,7 +6176,7 @@
         <v>867</v>
       </c>
       <c r="C53" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6190,7 +6187,7 @@
         <v>869</v>
       </c>
       <c r="C54" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6201,7 +6198,7 @@
         <v>871</v>
       </c>
       <c r="C55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6212,7 +6209,7 @@
         <v>873</v>
       </c>
       <c r="C56" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6223,7 +6220,7 @@
         <v>875</v>
       </c>
       <c r="C57" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6234,7 +6231,7 @@
         <v>877</v>
       </c>
       <c r="C58" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6245,7 +6242,7 @@
         <v>879</v>
       </c>
       <c r="C59" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6256,7 +6253,7 @@
         <v>881</v>
       </c>
       <c r="C60" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6267,7 +6264,7 @@
         <v>883</v>
       </c>
       <c r="C61" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6278,7 +6275,7 @@
         <v>885</v>
       </c>
       <c r="C62" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6289,7 +6286,7 @@
         <v>887</v>
       </c>
       <c r="C63" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6300,7 +6297,7 @@
         <v>889</v>
       </c>
       <c r="C64" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6311,7 +6308,7 @@
         <v>891</v>
       </c>
       <c r="C65" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6322,7 +6319,7 @@
         <v>893</v>
       </c>
       <c r="C66" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6333,7 +6330,7 @@
         <v>895</v>
       </c>
       <c r="C67" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6344,7 +6341,7 @@
         <v>897</v>
       </c>
       <c r="C68" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6355,7 +6352,7 @@
         <v>899</v>
       </c>
       <c r="C69" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6366,7 +6363,7 @@
         <v>901</v>
       </c>
       <c r="C70" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6377,7 +6374,7 @@
         <v>903</v>
       </c>
       <c r="C71" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6388,7 +6385,7 @@
         <v>905</v>
       </c>
       <c r="C72" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -6399,7 +6396,7 @@
         <v>907</v>
       </c>
       <c r="C73" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -6410,7 +6407,7 @@
         <v>909</v>
       </c>
       <c r="C74" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6421,7 +6418,7 @@
         <v>911</v>
       </c>
       <c r="C75" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -6432,7 +6429,7 @@
         <v>913</v>
       </c>
       <c r="C76" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6443,7 +6440,7 @@
         <v>915</v>
       </c>
       <c r="C77" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6454,7 +6451,7 @@
         <v>917</v>
       </c>
       <c r="C78" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -6465,7 +6462,7 @@
         <v>919</v>
       </c>
       <c r="C79" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6476,7 +6473,7 @@
         <v>921</v>
       </c>
       <c r="C80" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -6487,7 +6484,7 @@
         <v>923</v>
       </c>
       <c r="C81" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -6498,7 +6495,7 @@
         <v>925</v>
       </c>
       <c r="C82" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -6509,7 +6506,7 @@
         <v>927</v>
       </c>
       <c r="C83" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -6520,7 +6517,7 @@
         <v>929</v>
       </c>
       <c r="C84" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -6531,7 +6528,7 @@
         <v>931</v>
       </c>
       <c r="C85" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -6542,7 +6539,7 @@
         <v>933</v>
       </c>
       <c r="C86" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -6553,7 +6550,7 @@
         <v>935</v>
       </c>
       <c r="C87" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -6564,7 +6561,7 @@
         <v>937</v>
       </c>
       <c r="C88" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -6575,7 +6572,7 @@
         <v>939</v>
       </c>
       <c r="C89" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -6586,7 +6583,7 @@
         <v>941</v>
       </c>
       <c r="C90" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -6597,7 +6594,7 @@
         <v>943</v>
       </c>
       <c r="C91" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6608,7 +6605,7 @@
         <v>945</v>
       </c>
       <c r="C92" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6619,7 +6616,7 @@
         <v>947</v>
       </c>
       <c r="C93" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6630,7 +6627,7 @@
         <v>949</v>
       </c>
       <c r="C94" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6641,7 +6638,7 @@
         <v>951</v>
       </c>
       <c r="C95" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6652,7 +6649,7 @@
         <v>953</v>
       </c>
       <c r="C96" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6663,7 +6660,7 @@
         <v>955</v>
       </c>
       <c r="C97" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6674,7 +6671,7 @@
         <v>957</v>
       </c>
       <c r="C98" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6685,7 +6682,7 @@
         <v>959</v>
       </c>
       <c r="C99" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6696,7 +6693,7 @@
         <v>961</v>
       </c>
       <c r="C100" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6707,7 +6704,7 @@
         <v>963</v>
       </c>
       <c r="C101" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6718,7 +6715,7 @@
         <v>965</v>
       </c>
       <c r="C102" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6729,7 +6726,7 @@
         <v>967</v>
       </c>
       <c r="C103" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6740,7 +6737,7 @@
         <v>969</v>
       </c>
       <c r="C104" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6751,7 +6748,7 @@
         <v>971</v>
       </c>
       <c r="C105" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6762,7 +6759,7 @@
         <v>973</v>
       </c>
       <c r="C106" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6773,7 +6770,7 @@
         <v>975</v>
       </c>
       <c r="C107" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6784,7 +6781,7 @@
         <v>977</v>
       </c>
       <c r="C108" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6795,7 +6792,7 @@
         <v>979</v>
       </c>
       <c r="C109" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6806,7 +6803,7 @@
         <v>981</v>
       </c>
       <c r="C110" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6817,7 +6814,7 @@
         <v>983</v>
       </c>
       <c r="C111" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6828,7 +6825,7 @@
         <v>985</v>
       </c>
       <c r="C112" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6839,7 +6836,7 @@
         <v>987</v>
       </c>
       <c r="C113" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6850,7 +6847,7 @@
         <v>989</v>
       </c>
       <c r="C114" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6861,7 +6858,7 @@
         <v>991</v>
       </c>
       <c r="C115" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6872,7 +6869,7 @@
         <v>993</v>
       </c>
       <c r="C116" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6883,7 +6880,7 @@
         <v>995</v>
       </c>
       <c r="C117" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6894,7 +6891,7 @@
         <v>997</v>
       </c>
       <c r="C118" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -6905,7 +6902,7 @@
         <v>999</v>
       </c>
       <c r="C119" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6916,7 +6913,7 @@
         <v>1001</v>
       </c>
       <c r="C120" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6927,7 +6924,7 @@
         <v>1003</v>
       </c>
       <c r="C121" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6938,7 +6935,7 @@
         <v>1005</v>
       </c>
       <c r="C122" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6949,7 +6946,7 @@
         <v>1007</v>
       </c>
       <c r="C123" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6960,7 +6957,7 @@
         <v>1009</v>
       </c>
       <c r="C124" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6971,7 +6968,7 @@
         <v>1011</v>
       </c>
       <c r="C125" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6982,7 +6979,7 @@
         <v>1013</v>
       </c>
       <c r="C126" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6993,7 +6990,7 @@
         <v>1015</v>
       </c>
       <c r="C127" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7004,7 +7001,7 @@
         <v>1017</v>
       </c>
       <c r="C128" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7015,7 +7012,7 @@
         <v>1019</v>
       </c>
       <c r="C129" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7026,7 +7023,7 @@
         <v>1021</v>
       </c>
       <c r="C130" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7037,7 +7034,7 @@
         <v>1023</v>
       </c>
       <c r="C131" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7048,7 +7045,7 @@
         <v>1025</v>
       </c>
       <c r="C132" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7059,7 +7056,7 @@
         <v>1027</v>
       </c>
       <c r="C133" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7070,7 +7067,7 @@
         <v>1029</v>
       </c>
       <c r="C134" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7081,7 +7078,7 @@
         <v>1031</v>
       </c>
       <c r="C135" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -7092,7 +7089,7 @@
         <v>1033</v>
       </c>
       <c r="C136" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -7103,7 +7100,7 @@
         <v>1035</v>
       </c>
       <c r="C137" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -7114,7 +7111,7 @@
         <v>1037</v>
       </c>
       <c r="C138" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -7125,7 +7122,7 @@
         <v>1039</v>
       </c>
       <c r="C139" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -7136,7 +7133,7 @@
         <v>1041</v>
       </c>
       <c r="C140" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -7147,7 +7144,7 @@
         <v>1043</v>
       </c>
       <c r="C141" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -7158,7 +7155,7 @@
         <v>1045</v>
       </c>
       <c r="C142" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -7169,7 +7166,7 @@
         <v>1047</v>
       </c>
       <c r="C143" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -7180,7 +7177,7 @@
         <v>1049</v>
       </c>
       <c r="C144" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -7191,7 +7188,7 @@
         <v>1051</v>
       </c>
       <c r="C145" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -7202,7 +7199,7 @@
         <v>1053</v>
       </c>
       <c r="C146" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -7213,7 +7210,7 @@
         <v>1055</v>
       </c>
       <c r="C147" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -7224,7 +7221,7 @@
         <v>1057</v>
       </c>
       <c r="C148" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -7235,7 +7232,7 @@
         <v>1059</v>
       </c>
       <c r="C149" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -7246,7 +7243,7 @@
         <v>1061</v>
       </c>
       <c r="C150" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -7257,7 +7254,7 @@
         <v>1063</v>
       </c>
       <c r="C151" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -7268,7 +7265,7 @@
         <v>1065</v>
       </c>
       <c r="C152" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -7279,7 +7276,7 @@
         <v>1067</v>
       </c>
       <c r="C153" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -7290,7 +7287,7 @@
         <v>1069</v>
       </c>
       <c r="C154" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -7301,7 +7298,7 @@
         <v>1071</v>
       </c>
       <c r="C155" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -7312,7 +7309,7 @@
         <v>1073</v>
       </c>
       <c r="C156" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -7323,7 +7320,7 @@
         <v>1075</v>
       </c>
       <c r="C157" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -7334,7 +7331,7 @@
         <v>1077</v>
       </c>
       <c r="C158" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -7345,7 +7342,7 @@
         <v>1079</v>
       </c>
       <c r="C159" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -7356,7 +7353,7 @@
         <v>1081</v>
       </c>
       <c r="C160" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -7367,7 +7364,7 @@
         <v>1083</v>
       </c>
       <c r="C161" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -7378,7 +7375,7 @@
         <v>1085</v>
       </c>
       <c r="C162" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -7389,7 +7386,7 @@
         <v>1087</v>
       </c>
       <c r="C163" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -7400,7 +7397,7 @@
         <v>1089</v>
       </c>
       <c r="C164" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -7411,7 +7408,7 @@
         <v>1091</v>
       </c>
       <c r="C165" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -7422,7 +7419,7 @@
         <v>1093</v>
       </c>
       <c r="C166" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -7433,7 +7430,7 @@
         <v>1095</v>
       </c>
       <c r="C167" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -7444,7 +7441,7 @@
         <v>1097</v>
       </c>
       <c r="C168" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -7455,7 +7452,7 @@
         <v>1099</v>
       </c>
       <c r="C169" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -7466,7 +7463,7 @@
         <v>1101</v>
       </c>
       <c r="C170" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -7477,7 +7474,7 @@
         <v>1103</v>
       </c>
       <c r="C171" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -7488,7 +7485,7 @@
         <v>1105</v>
       </c>
       <c r="C172" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -7499,7 +7496,7 @@
         <v>1107</v>
       </c>
       <c r="C173" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -7510,7 +7507,7 @@
         <v>1109</v>
       </c>
       <c r="C174" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -7521,7 +7518,7 @@
         <v>1111</v>
       </c>
       <c r="C175" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -7532,7 +7529,7 @@
         <v>1113</v>
       </c>
       <c r="C176" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -7543,7 +7540,7 @@
         <v>1115</v>
       </c>
       <c r="C177" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -7554,7 +7551,7 @@
         <v>1117</v>
       </c>
       <c r="C178" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -7565,7 +7562,7 @@
         <v>1119</v>
       </c>
       <c r="C179" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -7576,7 +7573,7 @@
         <v>1121</v>
       </c>
       <c r="C180" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -7587,7 +7584,7 @@
         <v>1123</v>
       </c>
       <c r="C181" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -7598,7 +7595,7 @@
         <v>1125</v>
       </c>
       <c r="C182" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -7609,7 +7606,7 @@
         <v>1127</v>
       </c>
       <c r="C183" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -7620,7 +7617,7 @@
         <v>1129</v>
       </c>
       <c r="C184" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -7631,7 +7628,7 @@
         <v>1131</v>
       </c>
       <c r="C185" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -7642,7 +7639,7 @@
         <v>1133</v>
       </c>
       <c r="C186" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -7653,7 +7650,7 @@
         <v>1135</v>
       </c>
       <c r="C187" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -7664,7 +7661,7 @@
         <v>1137</v>
       </c>
       <c r="C188" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -7675,7 +7672,7 @@
         <v>1139</v>
       </c>
       <c r="C189" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -7686,7 +7683,7 @@
         <v>1141</v>
       </c>
       <c r="C190" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -7697,7 +7694,7 @@
         <v>1143</v>
       </c>
       <c r="C191" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -7708,7 +7705,7 @@
         <v>1145</v>
       </c>
       <c r="C192" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -7719,7 +7716,7 @@
         <v>1147</v>
       </c>
       <c r="C193" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -7730,7 +7727,7 @@
         <v>1149</v>
       </c>
       <c r="C194" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -7741,7 +7738,7 @@
         <v>1151</v>
       </c>
       <c r="C195" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -7752,7 +7749,7 @@
         <v>1153</v>
       </c>
       <c r="C196" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -7763,7 +7760,7 @@
         <v>1155</v>
       </c>
       <c r="C197" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -7774,7 +7771,7 @@
         <v>1157</v>
       </c>
       <c r="C198" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -7785,7 +7782,7 @@
         <v>1159</v>
       </c>
       <c r="C199" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -7796,7 +7793,7 @@
         <v>1161</v>
       </c>
       <c r="C200" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -7807,7 +7804,7 @@
         <v>1163</v>
       </c>
       <c r="C201" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -7818,7 +7815,7 @@
         <v>1165</v>
       </c>
       <c r="C202" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -7829,7 +7826,7 @@
         <v>1167</v>
       </c>
       <c r="C203" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -7840,7 +7837,7 @@
         <v>1169</v>
       </c>
       <c r="C204" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -7851,7 +7848,7 @@
         <v>1171</v>
       </c>
       <c r="C205" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -7862,7 +7859,7 @@
         <v>1173</v>
       </c>
       <c r="C206" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -7873,7 +7870,7 @@
         <v>1175</v>
       </c>
       <c r="C207" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -7884,7 +7881,7 @@
         <v>1177</v>
       </c>
       <c r="C208" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -7895,7 +7892,7 @@
         <v>1179</v>
       </c>
       <c r="C209" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -7906,7 +7903,7 @@
         <v>1181</v>
       </c>
       <c r="C210" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -7917,7 +7914,7 @@
         <v>1183</v>
       </c>
       <c r="C211" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -7928,7 +7925,7 @@
         <v>1185</v>
       </c>
       <c r="C212" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7939,7 +7936,7 @@
         <v>1187</v>
       </c>
       <c r="C213" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -7950,7 +7947,7 @@
         <v>1189</v>
       </c>
       <c r="C214" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -7961,7 +7958,7 @@
         <v>1191</v>
       </c>
       <c r="C215" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7972,7 +7969,7 @@
         <v>1193</v>
       </c>
       <c r="C216" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7983,7 +7980,7 @@
         <v>1195</v>
       </c>
       <c r="C217" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7994,7 +7991,7 @@
         <v>1197</v>
       </c>
       <c r="C218" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -8005,7 +8002,7 @@
         <v>1199</v>
       </c>
       <c r="C219" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -8016,7 +8013,7 @@
         <v>1201</v>
       </c>
       <c r="C220" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -8027,7 +8024,7 @@
         <v>1203</v>
       </c>
       <c r="C221" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -8038,7 +8035,7 @@
         <v>1205</v>
       </c>
       <c r="C222" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -8049,7 +8046,7 @@
         <v>1207</v>
       </c>
       <c r="C223" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -8060,7 +8057,7 @@
         <v>1209</v>
       </c>
       <c r="C224" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -8071,7 +8068,7 @@
         <v>1211</v>
       </c>
       <c r="C225" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -8082,7 +8079,7 @@
         <v>1213</v>
       </c>
       <c r="C226" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -8093,7 +8090,7 @@
         <v>1215</v>
       </c>
       <c r="C227" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -8104,7 +8101,7 @@
         <v>1217</v>
       </c>
       <c r="C228" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -8115,7 +8112,7 @@
         <v>1219</v>
       </c>
       <c r="C229" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -8126,7 +8123,7 @@
         <v>1221</v>
       </c>
       <c r="C230" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -8137,7 +8134,7 @@
         <v>1223</v>
       </c>
       <c r="C231" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -8148,7 +8145,7 @@
         <v>1225</v>
       </c>
       <c r="C232" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -8159,7 +8156,7 @@
         <v>1227</v>
       </c>
       <c r="C233" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -8170,7 +8167,7 @@
         <v>1229</v>
       </c>
       <c r="C234" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -8181,7 +8178,7 @@
         <v>1231</v>
       </c>
       <c r="C235" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -8192,7 +8189,7 @@
         <v>1233</v>
       </c>
       <c r="C236" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -8203,7 +8200,7 @@
         <v>1235</v>
       </c>
       <c r="C237" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -8214,7 +8211,7 @@
         <v>1237</v>
       </c>
       <c r="C238" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -8225,7 +8222,7 @@
         <v>1239</v>
       </c>
       <c r="C239" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -8236,7 +8233,7 @@
         <v>1241</v>
       </c>
       <c r="C240" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -8247,7 +8244,7 @@
         <v>1243</v>
       </c>
       <c r="C241" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -8258,7 +8255,7 @@
         <v>1245</v>
       </c>
       <c r="C242" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -8269,7 +8266,7 @@
         <v>1247</v>
       </c>
       <c r="C243" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -8280,7 +8277,7 @@
         <v>1249</v>
       </c>
       <c r="C244" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -8291,7 +8288,7 @@
         <v>1251</v>
       </c>
       <c r="C245" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -8302,7 +8299,7 @@
         <v>1253</v>
       </c>
       <c r="C246" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -8313,7 +8310,7 @@
         <v>1255</v>
       </c>
       <c r="C247" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -8324,7 +8321,7 @@
         <v>1257</v>
       </c>
       <c r="C248" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -8335,7 +8332,7 @@
         <v>1259</v>
       </c>
       <c r="C249" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -8346,7 +8343,7 @@
         <v>1261</v>
       </c>
       <c r="C250" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -8357,7 +8354,7 @@
         <v>1263</v>
       </c>
       <c r="C251" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -8368,7 +8365,7 @@
         <v>1265</v>
       </c>
       <c r="C252" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -8379,7 +8376,7 @@
         <v>1267</v>
       </c>
       <c r="C253" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -8390,7 +8387,7 @@
         <v>1269</v>
       </c>
       <c r="C254" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -8401,7 +8398,7 @@
         <v>1271</v>
       </c>
       <c r="C255" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -8412,7 +8409,7 @@
         <v>1273</v>
       </c>
       <c r="C256" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -8423,7 +8420,7 @@
         <v>1275</v>
       </c>
       <c r="C257" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -8434,7 +8431,7 @@
         <v>1277</v>
       </c>
       <c r="C258" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -8445,7 +8442,7 @@
         <v>1279</v>
       </c>
       <c r="C259" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -8456,7 +8453,7 @@
         <v>1281</v>
       </c>
       <c r="C260" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -8467,7 +8464,7 @@
         <v>1283</v>
       </c>
       <c r="C261" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -8478,7 +8475,7 @@
         <v>1285</v>
       </c>
       <c r="C262" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -8489,7 +8486,7 @@
         <v>1287</v>
       </c>
       <c r="C263" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -8500,7 +8497,7 @@
         <v>1289</v>
       </c>
       <c r="C264" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -8511,7 +8508,7 @@
         <v>1291</v>
       </c>
       <c r="C265" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -8522,7 +8519,7 @@
         <v>1293</v>
       </c>
       <c r="C266" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -8533,7 +8530,7 @@
         <v>1295</v>
       </c>
       <c r="C267" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -8544,7 +8541,7 @@
         <v>1297</v>
       </c>
       <c r="C268" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -8555,7 +8552,7 @@
         <v>1299</v>
       </c>
       <c r="C269" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -8566,7 +8563,7 @@
         <v>1301</v>
       </c>
       <c r="C270" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -8577,7 +8574,7 @@
         <v>1303</v>
       </c>
       <c r="C271" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -8588,7 +8585,7 @@
         <v>1305</v>
       </c>
       <c r="C272" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -8599,7 +8596,7 @@
         <v>1307</v>
       </c>
       <c r="C273" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -8610,7 +8607,7 @@
         <v>1309</v>
       </c>
       <c r="C274" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -8621,7 +8618,7 @@
         <v>1311</v>
       </c>
       <c r="C275" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -8632,7 +8629,7 @@
         <v>1313</v>
       </c>
       <c r="C276" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -8643,7 +8640,7 @@
         <v>1315</v>
       </c>
       <c r="C277" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -8654,7 +8651,7 @@
         <v>1317</v>
       </c>
       <c r="C278" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -8665,7 +8662,7 @@
         <v>1319</v>
       </c>
       <c r="C279" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -8676,7 +8673,7 @@
         <v>1321</v>
       </c>
       <c r="C280" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -8687,7 +8684,7 @@
         <v>1323</v>
       </c>
       <c r="C281" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -8698,7 +8695,7 @@
         <v>1325</v>
       </c>
       <c r="C282" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -8709,7 +8706,7 @@
         <v>1327</v>
       </c>
       <c r="C283" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -8720,7 +8717,7 @@
         <v>1329</v>
       </c>
       <c r="C284" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -8731,7 +8728,7 @@
         <v>1331</v>
       </c>
       <c r="C285" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -8742,7 +8739,7 @@
         <v>1333</v>
       </c>
       <c r="C286" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -8753,7 +8750,7 @@
         <v>1335</v>
       </c>
       <c r="C287" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -8764,7 +8761,7 @@
         <v>1337</v>
       </c>
       <c r="C288" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -8775,7 +8772,7 @@
         <v>1339</v>
       </c>
       <c r="C289" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -8786,7 +8783,7 @@
         <v>1341</v>
       </c>
       <c r="C290" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -8797,7 +8794,7 @@
         <v>1343</v>
       </c>
       <c r="C291" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -8808,7 +8805,7 @@
         <v>1345</v>
       </c>
       <c r="C292" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -8819,7 +8816,7 @@
         <v>1347</v>
       </c>
       <c r="C293" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -8830,7 +8827,7 @@
         <v>1349</v>
       </c>
       <c r="C294" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -8841,7 +8838,7 @@
         <v>1351</v>
       </c>
       <c r="C295" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -8852,7 +8849,7 @@
         <v>1353</v>
       </c>
       <c r="C296" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -8863,7 +8860,7 @@
         <v>1355</v>
       </c>
       <c r="C297" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -8874,7 +8871,7 @@
         <v>1357</v>
       </c>
       <c r="C298" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -8885,7 +8882,7 @@
         <v>1359</v>
       </c>
       <c r="C299" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -8896,7 +8893,7 @@
         <v>1361</v>
       </c>
       <c r="C300" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -8907,7 +8904,7 @@
         <v>1363</v>
       </c>
       <c r="C301" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -8918,7 +8915,7 @@
         <v>1365</v>
       </c>
       <c r="C302" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -8929,7 +8926,7 @@
         <v>1367</v>
       </c>
       <c r="C303" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -8940,7 +8937,7 @@
         <v>1369</v>
       </c>
       <c r="C304" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -8951,7 +8948,7 @@
         <v>1371</v>
       </c>
       <c r="C305" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -8962,7 +8959,7 @@
         <v>1373</v>
       </c>
       <c r="C306" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8973,7 +8970,7 @@
         <v>1375</v>
       </c>
       <c r="C307" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -8984,7 +8981,7 @@
         <v>1377</v>
       </c>
       <c r="C308" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -8995,7 +8992,7 @@
         <v>1379</v>
       </c>
       <c r="C309" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -9006,7 +9003,7 @@
         <v>1381</v>
       </c>
       <c r="C310" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -9017,7 +9014,7 @@
         <v>1383</v>
       </c>
       <c r="C311" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -9028,7 +9025,7 @@
         <v>1385</v>
       </c>
       <c r="C312" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -9039,7 +9036,7 @@
         <v>1387</v>
       </c>
       <c r="C313" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -9050,7 +9047,7 @@
         <v>1389</v>
       </c>
       <c r="C314" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -9061,7 +9058,7 @@
         <v>1391</v>
       </c>
       <c r="C315" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -9072,7 +9069,7 @@
         <v>1393</v>
       </c>
       <c r="C316" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -9083,7 +9080,7 @@
         <v>1395</v>
       </c>
       <c r="C317" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -9094,7 +9091,7 @@
         <v>1397</v>
       </c>
       <c r="C318" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -9105,7 +9102,7 @@
         <v>1399</v>
       </c>
       <c r="C319" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -9116,7 +9113,7 @@
         <v>1401</v>
       </c>
       <c r="C320" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -9127,7 +9124,7 @@
         <v>1403</v>
       </c>
       <c r="C321" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -9138,7 +9135,7 @@
         <v>1405</v>
       </c>
       <c r="C322" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -9149,7 +9146,7 @@
         <v>1407</v>
       </c>
       <c r="C323" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -9160,7 +9157,7 @@
         <v>1409</v>
       </c>
       <c r="C324" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -9171,7 +9168,7 @@
         <v>1411</v>
       </c>
       <c r="C325" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -9182,7 +9179,7 @@
         <v>1413</v>
       </c>
       <c r="C326" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -9193,7 +9190,7 @@
         <v>1415</v>
       </c>
       <c r="C327" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -9204,7 +9201,7 @@
         <v>1417</v>
       </c>
       <c r="C328" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -9215,7 +9212,7 @@
         <v>1419</v>
       </c>
       <c r="C329" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -9226,7 +9223,7 @@
         <v>1421</v>
       </c>
       <c r="C330" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -9237,7 +9234,7 @@
         <v>1423</v>
       </c>
       <c r="C331" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -9248,7 +9245,7 @@
         <v>1425</v>
       </c>
       <c r="C332" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -9259,7 +9256,7 @@
         <v>1427</v>
       </c>
       <c r="C333" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -9270,7 +9267,7 @@
         <v>1429</v>
       </c>
       <c r="C334" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -9281,7 +9278,7 @@
         <v>1431</v>
       </c>
       <c r="C335" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -9292,7 +9289,7 @@
         <v>1433</v>
       </c>
       <c r="C336" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -9303,7 +9300,7 @@
         <v>1435</v>
       </c>
       <c r="C337" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -9314,7 +9311,7 @@
         <v>1437</v>
       </c>
       <c r="C338" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -9325,7 +9322,7 @@
         <v>1439</v>
       </c>
       <c r="C339" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -9336,7 +9333,7 @@
         <v>1441</v>
       </c>
       <c r="C340" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -9347,7 +9344,7 @@
         <v>1443</v>
       </c>
       <c r="C341" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -9358,7 +9355,7 @@
         <v>1445</v>
       </c>
       <c r="C342" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -9369,7 +9366,7 @@
         <v>1447</v>
       </c>
       <c r="C343" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -9380,7 +9377,7 @@
         <v>1449</v>
       </c>
       <c r="C344" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -9391,7 +9388,7 @@
         <v>1451</v>
       </c>
       <c r="C345" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -9402,7 +9399,7 @@
         <v>1453</v>
       </c>
       <c r="C346" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -9413,7 +9410,7 @@
         <v>1455</v>
       </c>
       <c r="C347" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -9424,7 +9421,7 @@
         <v>1457</v>
       </c>
       <c r="C348" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -9435,7 +9432,7 @@
         <v>1459</v>
       </c>
       <c r="C349" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -9446,7 +9443,7 @@
         <v>1461</v>
       </c>
       <c r="C350" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -9457,7 +9454,7 @@
         <v>1463</v>
       </c>
       <c r="C351" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -9468,7 +9465,7 @@
         <v>1465</v>
       </c>
       <c r="C352" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -9479,7 +9476,7 @@
         <v>1467</v>
       </c>
       <c r="C353" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -9490,7 +9487,7 @@
         <v>1469</v>
       </c>
       <c r="C354" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -9501,7 +9498,7 @@
         <v>1471</v>
       </c>
       <c r="C355" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -9512,7 +9509,7 @@
         <v>1473</v>
       </c>
       <c r="C356" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -9523,7 +9520,7 @@
         <v>1475</v>
       </c>
       <c r="C357" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -9534,7 +9531,7 @@
         <v>1477</v>
       </c>
       <c r="C358" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -9545,7 +9542,7 @@
         <v>1479</v>
       </c>
       <c r="C359" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -9556,7 +9553,7 @@
         <v>1481</v>
       </c>
       <c r="C360" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -9567,7 +9564,7 @@
         <v>1483</v>
       </c>
       <c r="C361" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -9578,7 +9575,7 @@
         <v>1485</v>
       </c>
       <c r="C362" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -9589,7 +9586,7 @@
         <v>1487</v>
       </c>
       <c r="C363" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -9600,7 +9597,7 @@
         <v>1489</v>
       </c>
       <c r="C364" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -9611,7 +9608,7 @@
         <v>1491</v>
       </c>
       <c r="C365" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -9622,7 +9619,7 @@
         <v>1493</v>
       </c>
       <c r="C366" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -9633,7 +9630,7 @@
         <v>1495</v>
       </c>
       <c r="C367" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -9644,7 +9641,7 @@
         <v>1497</v>
       </c>
       <c r="C368" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -9655,7 +9652,7 @@
         <v>1499</v>
       </c>
       <c r="C369" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -9666,7 +9663,7 @@
         <v>1501</v>
       </c>
       <c r="C370" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -9677,7 +9674,7 @@
         <v>1503</v>
       </c>
       <c r="C371" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -9688,7 +9685,7 @@
         <v>1505</v>
       </c>
       <c r="C372" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -9699,7 +9696,7 @@
         <v>1507</v>
       </c>
       <c r="C373" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -9710,7 +9707,7 @@
         <v>1509</v>
       </c>
       <c r="C374" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -9721,7 +9718,7 @@
         <v>1511</v>
       </c>
       <c r="C375" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -9732,7 +9729,7 @@
         <v>1513</v>
       </c>
       <c r="C376" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -9743,7 +9740,7 @@
         <v>1515</v>
       </c>
       <c r="C377" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -9754,7 +9751,7 @@
         <v>1517</v>
       </c>
       <c r="C378" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -9765,7 +9762,7 @@
         <v>1519</v>
       </c>
       <c r="C379" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -9776,7 +9773,7 @@
         <v>1521</v>
       </c>
       <c r="C380" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -9787,7 +9784,7 @@
         <v>1523</v>
       </c>
       <c r="C381" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -9798,7 +9795,7 @@
         <v>1525</v>
       </c>
       <c r="C382" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9809,7 +9806,7 @@
         <v>1527</v>
       </c>
       <c r="C383" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -9820,7 +9817,7 @@
         <v>1529</v>
       </c>
       <c r="C384" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -9831,7 +9828,7 @@
         <v>1531</v>
       </c>
       <c r="C385" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -9842,7 +9839,7 @@
         <v>1533</v>
       </c>
       <c r="C386" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -9853,7 +9850,7 @@
         <v>1535</v>
       </c>
       <c r="C387" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -9864,7 +9861,7 @@
         <v>1537</v>
       </c>
       <c r="C388" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -9875,7 +9872,7 @@
         <v>1539</v>
       </c>
       <c r="C389" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -9886,7 +9883,7 @@
         <v>1541</v>
       </c>
       <c r="C390" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -9897,7 +9894,7 @@
         <v>1543</v>
       </c>
       <c r="C391" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -9908,7 +9905,7 @@
         <v>1545</v>
       </c>
       <c r="C392" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -9919,7 +9916,7 @@
         <v>1547</v>
       </c>
       <c r="C393" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -9930,7 +9927,7 @@
         <v>1549</v>
       </c>
       <c r="C394" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -9941,7 +9938,7 @@
         <v>1551</v>
       </c>
       <c r="C395" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -9952,7 +9949,7 @@
         <v>1553</v>
       </c>
       <c r="C396" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -9963,7 +9960,7 @@
         <v>1555</v>
       </c>
       <c r="C397" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -9974,7 +9971,7 @@
         <v>1557</v>
       </c>
       <c r="C398" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -9985,7 +9982,7 @@
         <v>1559</v>
       </c>
       <c r="C399" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -9996,7 +9993,7 @@
         <v>1561</v>
       </c>
       <c r="C400" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -10007,7 +10004,7 @@
         <v>1563</v>
       </c>
       <c r="C401" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -10018,7 +10015,7 @@
         <v>1565</v>
       </c>
       <c r="C402" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -10029,7 +10026,7 @@
         <v>1567</v>
       </c>
       <c r="C403" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -10040,7 +10037,7 @@
         <v>1569</v>
       </c>
       <c r="C404" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -10051,7 +10048,7 @@
         <v>1571</v>
       </c>
       <c r="C405" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -10062,7 +10059,7 @@
         <v>1573</v>
       </c>
       <c r="C406" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -10073,7 +10070,7 @@
         <v>1575</v>
       </c>
       <c r="C407" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -10084,7 +10081,7 @@
         <v>1577</v>
       </c>
       <c r="C408" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -10095,7 +10092,7 @@
         <v>1579</v>
       </c>
       <c r="C409" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -10106,7 +10103,7 @@
         <v>1581</v>
       </c>
       <c r="C410" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -10117,7 +10114,7 @@
         <v>1583</v>
       </c>
       <c r="C411" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -10128,7 +10125,7 @@
         <v>1585</v>
       </c>
       <c r="C412" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -10139,7 +10136,7 @@
         <v>1587</v>
       </c>
       <c r="C413" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -10150,7 +10147,7 @@
         <v>1589</v>
       </c>
       <c r="C414" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -10161,7 +10158,7 @@
         <v>1591</v>
       </c>
       <c r="C415" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -10172,7 +10169,7 @@
         <v>1593</v>
       </c>
       <c r="C416" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -10183,7 +10180,7 @@
         <v>1595</v>
       </c>
       <c r="C417" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -10194,7 +10191,7 @@
         <v>1597</v>
       </c>
       <c r="C418" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -10205,7 +10202,7 @@
         <v>1599</v>
       </c>
       <c r="C419" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -10216,7 +10213,7 @@
         <v>1601</v>
       </c>
       <c r="C420" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -10227,7 +10224,7 @@
         <v>1603</v>
       </c>
       <c r="C421" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -10238,7 +10235,7 @@
         <v>1605</v>
       </c>
       <c r="C422" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -10249,7 +10246,7 @@
         <v>1607</v>
       </c>
       <c r="C423" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -10260,7 +10257,7 @@
         <v>1609</v>
       </c>
       <c r="C424" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -10271,7 +10268,7 @@
         <v>1611</v>
       </c>
       <c r="C425" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -10282,7 +10279,7 @@
         <v>1613</v>
       </c>
       <c r="C426" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -10293,7 +10290,7 @@
         <v>1615</v>
       </c>
       <c r="C427" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -10304,7 +10301,7 @@
         <v>1617</v>
       </c>
       <c r="C428" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -10315,7 +10312,7 @@
         <v>1619</v>
       </c>
       <c r="C429" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -10326,7 +10323,7 @@
         <v>1621</v>
       </c>
       <c r="C430" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -10337,7 +10334,7 @@
         <v>1623</v>
       </c>
       <c r="C431" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -10348,7 +10345,7 @@
         <v>1625</v>
       </c>
       <c r="C432" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -10359,7 +10356,7 @@
         <v>1627</v>
       </c>
       <c r="C433" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -10370,7 +10367,7 @@
         <v>1629</v>
       </c>
       <c r="C434" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -10381,7 +10378,7 @@
         <v>1631</v>
       </c>
       <c r="C435" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -10392,7 +10389,7 @@
         <v>1633</v>
       </c>
       <c r="C436" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -10403,7 +10400,7 @@
         <v>1635</v>
       </c>
       <c r="C437" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -10414,7 +10411,7 @@
         <v>1637</v>
       </c>
       <c r="C438" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -10425,7 +10422,7 @@
         <v>1639</v>
       </c>
       <c r="C439" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -10436,7 +10433,7 @@
         <v>1641</v>
       </c>
       <c r="C440" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -10447,7 +10444,7 @@
         <v>1643</v>
       </c>
       <c r="C441" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -10458,7 +10455,7 @@
         <v>1645</v>
       </c>
       <c r="C442" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -10469,7 +10466,7 @@
         <v>1647</v>
       </c>
       <c r="C443" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -10480,7 +10477,7 @@
         <v>1649</v>
       </c>
       <c r="C444" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -10491,7 +10488,7 @@
         <v>1651</v>
       </c>
       <c r="C445" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -10502,7 +10499,7 @@
         <v>1653</v>
       </c>
       <c r="C446" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -10513,7 +10510,7 @@
         <v>1655</v>
       </c>
       <c r="C447" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -10524,7 +10521,7 @@
         <v>1657</v>
       </c>
       <c r="C448" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -10535,7 +10532,7 @@
         <v>1659</v>
       </c>
       <c r="C449" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -10546,7 +10543,7 @@
         <v>1661</v>
       </c>
       <c r="C450" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -10557,7 +10554,7 @@
         <v>1663</v>
       </c>
       <c r="C451" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -10568,7 +10565,7 @@
         <v>1665</v>
       </c>
       <c r="C452" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -10579,7 +10576,7 @@
         <v>1667</v>
       </c>
       <c r="C453" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -10590,7 +10587,7 @@
         <v>1669</v>
       </c>
       <c r="C454" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -10601,7 +10598,7 @@
         <v>1671</v>
       </c>
       <c r="C455" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -10612,7 +10609,7 @@
         <v>1673</v>
       </c>
       <c r="C456" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -10623,7 +10620,7 @@
         <v>1675</v>
       </c>
       <c r="C457" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -10634,7 +10631,7 @@
         <v>1677</v>
       </c>
       <c r="C458" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -10645,7 +10642,7 @@
         <v>1679</v>
       </c>
       <c r="C459" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -10656,7 +10653,7 @@
         <v>1681</v>
       </c>
       <c r="C460" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -10667,7 +10664,7 @@
         <v>1683</v>
       </c>
       <c r="C461" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -10678,7 +10675,7 @@
         <v>1685</v>
       </c>
       <c r="C462" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -10689,7 +10686,7 @@
         <v>1687</v>
       </c>
       <c r="C463" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -10700,7 +10697,7 @@
         <v>1689</v>
       </c>
       <c r="C464" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -10711,7 +10708,7 @@
         <v>1691</v>
       </c>
       <c r="C465" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -10722,7 +10719,7 @@
         <v>1693</v>
       </c>
       <c r="C466" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -10733,7 +10730,7 @@
         <v>1695</v>
       </c>
       <c r="C467" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -10744,7 +10741,7 @@
         <v>1697</v>
       </c>
       <c r="C468" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -10755,7 +10752,7 @@
         <v>1699</v>
       </c>
       <c r="C469" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -10766,7 +10763,7 @@
         <v>1701</v>
       </c>
       <c r="C470" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -10777,7 +10774,7 @@
         <v>1703</v>
       </c>
       <c r="C471" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -10788,7 +10785,7 @@
         <v>1705</v>
       </c>
       <c r="C472" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10799,7 +10796,7 @@
         <v>1707</v>
       </c>
       <c r="C473" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -10810,7 +10807,7 @@
         <v>1709</v>
       </c>
       <c r="C474" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -10821,7 +10818,7 @@
         <v>1711</v>
       </c>
       <c r="C475" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -10832,7 +10829,7 @@
         <v>1713</v>
       </c>
       <c r="C476" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -10843,7 +10840,7 @@
         <v>1715</v>
       </c>
       <c r="C477" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -10854,7 +10851,7 @@
         <v>1717</v>
       </c>
       <c r="C478" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -10865,7 +10862,7 @@
         <v>1719</v>
       </c>
       <c r="C479" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -10876,7 +10873,7 @@
         <v>1721</v>
       </c>
       <c r="C480" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10887,11 +10884,6 @@
         <v>1723</v>
       </c>
       <c r="C481" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="C482" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -10920,7 +10912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A785"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
